--- a/biology/Histoire de la zoologie et de la botanique/Matteo_Botteri/Matteo_Botteri.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Matteo_Botteri/Matteo_Botteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Matteo Botteri est un collectionneur et un ornithologue croate, né le 7 septembre 1808 à Hvar et mort le 3 juillet 1877.
 </t>
@@ -511,12 +523,49 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1854, Matteo Botteri se rend au Mexique pour récolter des plantes pour le compte de la Royal Horticultural Society. Il s'installe à Orizaba où il devient professeur de langues et d'histoire naturelle au collège de la ville.
 Le bruant de Botteri, Aimophila botterii, que Botteri a découvert au Mexique en 1857 lui a été dédié.
-Sources
-Traduction de l'article de Wikipédia en anglais (16 décembre 2005).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Matteo_Botteri</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Matteo_Botteri</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sources</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traduction de l'article de Wikipédia en anglais (16 décembre 2005).
  Portail de l’histoire de la zoologie et de la botanique   Portail de l'ornithologie                    </t>
         </is>
       </c>
